--- a/src/test/resources/TestData/TestDataSheet.xlsx
+++ b/src/test/resources/TestData/TestDataSheet.xlsx
@@ -3,12 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\eclipsenew\Selenium\src\test\resources\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E74E211-90D4-443E-A448-DAF1D2434A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5CF4253C-C8B5-4AE2-ADEB-8BB15C106111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="371" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,22 +13,17 @@
     <sheet name="Practice Questions" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
   <si>
     <t>UserName</t>
   </si>
   <si>
     <t>Password</t>
-  </si>
-  <si>
-    <t>qaautomates4</t>
-  </si>
-  <si>
-    <t>September2025$</t>
   </si>
   <si>
     <t>Expected Message</t>
@@ -536,7 +526,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,7 +539,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -558,37 +548,24 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
+    </row>
+    <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -611,21 +588,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -633,30 +610,30 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -702,81 +679,81 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
